--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,31 +22,49 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>005583</t>
+  </si>
+  <si>
+    <t>005197</t>
+  </si>
+  <si>
+    <t>005198</t>
+  </si>
+  <si>
+    <t>005701</t>
+  </si>
+  <si>
     <t>004316</t>
   </si>
   <si>
     <t>004317</t>
   </si>
   <si>
-    <t>005197</t>
-  </si>
-  <si>
-    <t>005198</t>
-  </si>
-  <si>
-    <t>005583</t>
-  </si>
-  <si>
-    <t>005701</t>
+    <t>易方达港股通红利灵活配置混合</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>上投摩根香港精选港股通混合</t>
   </si>
   <si>
     <t>前海开源沪港深裕鑫灵活配置混合A</t>
@@ -55,40 +73,64 @@
     <t>前海开源沪港深裕鑫灵活配置混合C</t>
   </si>
   <si>
-    <t>工银瑞信沪港深精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>易方达港股通红利灵活配置混合</t>
-  </si>
-  <si>
-    <t>上投摩根香港精选港股通混合</t>
+    <t>18.20</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>86.09</t>
+  </si>
+  <si>
+    <t>94.82</t>
+  </si>
+  <si>
+    <t>83.34</t>
   </si>
   <si>
     <t>90.36</t>
   </si>
   <si>
-    <t>94.82</t>
-  </si>
-  <si>
-    <t>86.09</t>
-  </si>
-  <si>
-    <t>83.34</t>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>2.69</t>
   </si>
   <si>
     <t>3.08</t>
   </si>
   <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>5.18</t>
-  </si>
-  <si>
-    <t>2.69</t>
+    <t>0.9428</t>
+  </si>
+  <si>
+    <t>0.3910</t>
+  </si>
+  <si>
+    <t>0.0673</t>
+  </si>
+  <si>
+    <t>0.0309</t>
+  </si>
+  <si>
+    <t>0.0191</t>
+  </si>
+  <si>
+    <t>0.0095</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,125 +510,167 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005583</t>
-  </si>
-  <si>
-    <t>005197</t>
-  </si>
-  <si>
-    <t>005198</t>
-  </si>
-  <si>
-    <t>005701</t>
-  </si>
-  <si>
-    <t>004316</t>
-  </si>
-  <si>
-    <t>004317</t>
-  </si>
-  <si>
-    <t>易方达港股通红利灵活配置混合</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>上投摩根香港精选港股通混合</t>
-  </si>
-  <si>
-    <t>前海开源沪港深裕鑫灵活配置混合A</t>
-  </si>
-  <si>
-    <t>前海开源沪港深裕鑫灵活配置混合C</t>
-  </si>
-  <si>
-    <t>18.20</t>
-  </si>
-  <si>
-    <t>9.01</t>
-  </si>
-  <si>
-    <t>1.55</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>86.09</t>
-  </si>
-  <si>
-    <t>94.82</t>
-  </si>
-  <si>
-    <t>83.34</t>
-  </si>
-  <si>
-    <t>90.36</t>
-  </si>
-  <si>
-    <t>5.18</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>0.9428</t>
-  </si>
-  <si>
-    <t>0.3910</t>
-  </si>
-  <si>
-    <t>0.0673</t>
-  </si>
-  <si>
-    <t>0.0309</t>
-  </si>
-  <si>
-    <t>0.0191</t>
-  </si>
-  <si>
-    <t>0.0095</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5575</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.5</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.42</v>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1824,13 +1889,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.67</v>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.5</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.42</v>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2402,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特玻璃.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>7.5</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.42</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,31 +644,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票A</t>
+          <t>工银沪港深股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7504</t>
+          <t>0.5308</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -670,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>85.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6703</t>
+          <t>0.4705</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>工银沪港深股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.05</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1649</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -774,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.70</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -850,188 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.80</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000927</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1096,36 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>002387</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>工银瑞信沪港深股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0771</t>
+          <t>0.7504</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1134,36 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011122</t>
+          <t>005644</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+          <t>广发沪港深行业龙头混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>88.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9079</t>
+          <t>0.6703</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1172,36 +1037,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>87.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2980</t>
+          <t>0.3832</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1210,36 +1075,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.22</t>
+          <t>87.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1300</t>
+          <t>0.1649</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1248,36 +1113,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.05</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1286,32 +1151,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>工银瑞信沪港深股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0801</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1324,36 +1189,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>007132</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>长城港股通价值精选多策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>85.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0496</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1362,36 +1227,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011123</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1400,36 +1265,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1438,36 +1303,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81.05</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1486,22 +1351,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1514,6 +1379,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2177,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2537,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
